--- a/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 6.xlsx_with_dialog_acts.xlsx
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
